--- a/DataBase.xlsx
+++ b/DataBase.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\Library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E7F7AD8-43C4-4349-97CB-140337200273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78743129-E209-4853-B980-B251A4AE9DD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35730" yWindow="1650" windowWidth="9600" windowHeight="11385" tabRatio="821" xr2:uid="{9D563DAA-1399-44FE-BD46-B4C7870F05A5}"/>
+    <workbookView xWindow="50640" yWindow="1320" windowWidth="9600" windowHeight="11385" tabRatio="821" xr2:uid="{9D563DAA-1399-44FE-BD46-B4C7870F05A5}"/>
   </bookViews>
   <sheets>
     <sheet name="SQL" sheetId="7" r:id="rId1"/>
-    <sheet name="Git" sheetId="9" r:id="rId2"/>
+    <sheet name="設計" sheetId="10" r:id="rId2"/>
+    <sheet name="Git" sheetId="9" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="122">
   <si>
     <t>コード</t>
     <phoneticPr fontId="1"/>
@@ -866,12 +867,412 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>制約</t>
+    <rPh sb="0" eb="2">
+      <t>セイヤク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">CREATE TABLE tb1(id INT, name VARCHAR(100) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NOT NULL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>);</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">CREATE TABLE tb2(id INT </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>UNIQUE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, name VARCHAR(100));</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">CREATE TABLE tb3(id INT </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PRIMARY KEY</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, name VARCHAR(100));</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">CREATE TABLE tb4(id INT, name VARCHAR(100), </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FOREIGN KEY(id) REFERENCES tb3(id)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>);</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>CREATE TABLE tb5(id INT, name VARCHAR(100)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> DEFAULT '山田太郎'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>);//日本語設定できてない</t>
+    </r>
+    <rPh sb="61" eb="64">
+      <t>ニホンゴ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">CREATE TABLE tb6(id INT </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CHECK(id &lt;= 100)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, name VARCHAR(100));</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">CREATE TABLE tb7(id INT </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AUTO_INCREMENT PRIMARY KEY</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, name VARCHAR(100));</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NULLを受け付けない。</t>
+    <rPh sb="5" eb="6">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>重複を受け付けない。</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウフク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>重複を受け付けないかつNULLを受け付けない。</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウフク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>外部キー制約をつける。</t>
+    <rPh sb="0" eb="2">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>セイヤク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デフォルト値を設定する。</t>
+    <rPh sb="5" eb="6">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>挿入できる値に制限をつける。</t>
+    <rPh sb="0" eb="2">
+      <t>ソウニュウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セイゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自動で値を増やしてくれる。</t>
+    <rPh sb="0" eb="2">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>フ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>概念設計</t>
+    <rPh sb="0" eb="2">
+      <t>ガイネン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セッケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>要件を明確にする</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウケン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>メイカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>物理設計</t>
+    <rPh sb="0" eb="4">
+      <t>ブツリセッケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エンティティを抽出</t>
+    <rPh sb="7" eb="9">
+      <t>チュウシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エンティティを定義</t>
+    <rPh sb="7" eb="9">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リレーションを設定</t>
+    <rPh sb="7" eb="9">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ER図を作成</t>
+    <rPh sb="2" eb="3">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リレーションモデルに変換</t>
+    <rPh sb="10" eb="12">
+      <t>ヘンカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>正規化する</t>
+    <rPh sb="0" eb="3">
+      <t>セイキカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ型の決定</t>
+    <rPh sb="3" eb="4">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>制約を定義</t>
+    <rPh sb="0" eb="2">
+      <t>セイヤク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -912,8 +1313,43 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -926,13 +1362,63 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -941,7 +1427,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -968,6 +1454,21 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1152,7 +1653,10 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{650C9971-6981-4A7A-86D7-B259B6641481}" name="テーブル8" displayName="テーブル8" ref="A1:B20" totalsRowShown="0">
-  <autoFilter ref="A1:B20" xr:uid="{650C9971-6981-4A7A-86D7-B259B6641481}"/>
+  <autoFilter ref="A1:B20" xr:uid="{650C9971-6981-4A7A-86D7-B259B6641481}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+  </autoFilter>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{3318C2DC-0F9C-4729-BD9A-9832D61D1370}" name="コード" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{1B1A1DE9-2341-49BA-8EEF-0D0287D033E1}" name="意味"/>
@@ -1474,13 +1978,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C800C585-615C-49BA-BA0C-CE9244C14E05}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="57.5" customWidth="1"/>
+    <col min="1" max="1" width="87.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="51.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1639,7 +2145,72 @@
     <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20" s="1"/>
     </row>
+    <row r="21" spans="1:2" ht="33" x14ac:dyDescent="0.4">
+      <c r="A21" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" s="12"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>96</v>
+      </c>
+      <c r="B22" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>97</v>
+      </c>
+      <c r="B23" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>98</v>
+      </c>
+      <c r="B24" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>99</v>
+      </c>
+      <c r="B25" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>100</v>
+      </c>
+      <c r="B26" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>101</v>
+      </c>
+      <c r="B27" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>102</v>
+      </c>
+      <c r="B28" t="s">
+        <v>109</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A21:B21"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1651,12 +2222,138 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{109A8883-66A4-4F89-ADBD-3F4BC4A790F7}">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="7.25" customWidth="1"/>
+    <col min="2" max="2" width="34.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A13" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>121</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A13:C13"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A277C7F3-67B4-4F73-926A-8D66D763AEA3}">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
